--- a/ExcelMerger/EX1.xlsx
+++ b/ExcelMerger/EX1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaroslav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ExcelMerger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11FFFD5-8A67-40C4-9AB0-1422B7288F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DFD1E-6007-4122-A059-79E24787FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="6360" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25 APR" sheetId="1" r:id="rId1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE1369-FEEE-4B8E-BC7D-FECA27623203}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
